--- a/Shablon/TPS 2024.xlsx
+++ b/Shablon/TPS 2024.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="199">
   <si>
     <t>3. Определение метрологических характеристик.</t>
   </si>
@@ -37,21 +37,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>АО "Гос МКБ "Вымпел" им. И.И. Торопова"</t>
-  </si>
-  <si>
-    <t>СГМетр, лаборатория средств электрорадиотехнических измерений</t>
-  </si>
-  <si>
-    <t>125424, г.Москва, Волоколамское шоссе, дом 90, стр. 23</t>
-  </si>
-  <si>
-    <t>Аттестат аккредитации № РОСС СОБ 3.00231.2014</t>
-  </si>
-  <si>
-    <t>Тел.+7 (495) 491-05-31, 22-68, e-mail: ogmetr@vympelmkb.com</t>
   </si>
   <si>
     <t>_type</t>
@@ -682,11 +667,14 @@
   <si>
     <t>TPS2012</t>
   </si>
+  <si>
+    <t>TITLE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -1027,12 +1015,69 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1044,63 +1089,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1409,8 +1397,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:M98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M81" sqref="M81"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1424,74 +1412,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
+      <c r="A1" s="51"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
+      <c r="A3" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -1505,18 +1485,18 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
+      <c r="A7" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
     </row>
     <row r="8" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
@@ -1531,31 +1511,31 @@
       <c r="J8" s="20"/>
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
+      <c r="A9" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
       <c r="D9" s="25" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="27"/>
       <c r="G9" s="28" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
+      <c r="A10" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="30" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
@@ -1565,11 +1545,11 @@
       <c r="J10" s="29"/>
     </row>
     <row r="11" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="A11" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="25"/>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
@@ -1579,11 +1559,11 @@
       <c r="J11" s="29"/>
     </row>
     <row r="12" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
+      <c r="A12" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="31"/>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
@@ -1593,13 +1573,13 @@
       <c r="J12" s="29"/>
     </row>
     <row r="13" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
+      <c r="A13" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="30" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
@@ -1609,13 +1589,13 @@
       <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
+      <c r="A14" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="31" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
@@ -1625,13 +1605,13 @@
       <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
+      <c r="A15" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="25" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
@@ -1654,7 +1634,7 @@
     </row>
     <row r="17" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1666,113 +1646,113 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:10" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="39"/>
-      <c r="G18" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="40"/>
+      <c r="A18" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="34"/>
       <c r="I18" s="1"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="54"/>
+      <c r="G20" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="39"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="54"/>
+      <c r="G21" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="39"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34" t="s">
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" s="35"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
+      <c r="F22" s="54"/>
+      <c r="G22" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34" t="s">
+      <c r="H22" s="39"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="35" t="s">
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="35"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
+      <c r="H23" s="39"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34" t="s">
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="35"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="35"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="35"/>
+      <c r="H24" s="39"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1788,7 +1768,7 @@
     </row>
     <row r="26" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -1813,7 +1793,7 @@
     </row>
     <row r="28" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1837,7 +1817,7 @@
     </row>
     <row r="30" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1874,657 +1854,657 @@
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+    </row>
+    <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-    </row>
-    <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="C34" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="J34" s="39"/>
+      <c r="J34" s="33"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="40"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="40"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="40"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="40"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
       <c r="G38" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
+      <c r="A40" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B41" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="36"/>
+      <c r="G41" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I41" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C41" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="F41" s="47"/>
-      <c r="G41" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="I41" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="J41" s="43" t="s">
-        <v>174</v>
+      <c r="J41" s="47" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B42" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="36"/>
+      <c r="G42" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I42" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C42" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="F42" s="47"/>
-      <c r="G42" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="J42" s="44"/>
+      <c r="J42" s="48"/>
     </row>
     <row r="43" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="F43" s="47"/>
+        <v>35</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="36"/>
       <c r="G43" s="11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="J43" s="44"/>
+        <v>165</v>
+      </c>
+      <c r="J43" s="48"/>
     </row>
     <row r="44" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C44" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="F44" s="47"/>
+        <v>99</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" s="36"/>
       <c r="G44" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="J44" s="44"/>
+        <v>166</v>
+      </c>
+      <c r="J44" s="48"/>
     </row>
     <row r="45" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C45" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="F45" s="47"/>
+        <v>160</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" s="36"/>
       <c r="G45" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="J45" s="45"/>
+        <v>167</v>
+      </c>
+      <c r="J45" s="49"/>
     </row>
     <row r="46" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C46" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="F46" s="47"/>
+        <v>161</v>
+      </c>
+      <c r="C46" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" s="36"/>
       <c r="G46" s="11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="J46" s="15" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="51" t="s">
+      <c r="A47" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="52"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="52"/>
-      <c r="J47" s="52"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
+      <c r="A48" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
     </row>
     <row r="49" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B49" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" s="36"/>
+      <c r="G49" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I49" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C49" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="F49" s="47"/>
-      <c r="G49" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="I49" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="J49" s="43" t="s">
-        <v>174</v>
+      <c r="J49" s="47" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B50" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C50" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" s="36"/>
+      <c r="G50" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I50" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C50" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="F50" s="47"/>
-      <c r="G50" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="I50" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="J50" s="44"/>
+      <c r="J50" s="48"/>
     </row>
     <row r="51" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C51" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="F51" s="47"/>
+        <v>35</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F51" s="36"/>
       <c r="G51" s="11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="J51" s="44"/>
+        <v>165</v>
+      </c>
+      <c r="J51" s="48"/>
     </row>
     <row r="52" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C52" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="F52" s="47"/>
+        <v>99</v>
+      </c>
+      <c r="C52" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="F52" s="36"/>
       <c r="G52" s="11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="J52" s="44"/>
+        <v>166</v>
+      </c>
+      <c r="J52" s="48"/>
     </row>
     <row r="53" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C53" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="F53" s="47"/>
+        <v>160</v>
+      </c>
+      <c r="C53" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="F53" s="36"/>
       <c r="G53" s="11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="J53" s="45"/>
+        <v>167</v>
+      </c>
+      <c r="J53" s="49"/>
     </row>
     <row r="54" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C54" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="F54" s="47"/>
+        <v>161</v>
+      </c>
+      <c r="C54" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="F54" s="36"/>
       <c r="G54" s="11" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="J54" s="15" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="B55" s="52"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="52"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="52"/>
-      <c r="J55" s="52"/>
+      <c r="A55" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
+      <c r="A56" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
     </row>
     <row r="57" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B57" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C57" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="F57" s="36"/>
+      <c r="G57" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="I57" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C57" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="F57" s="47"/>
-      <c r="G57" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="I57" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="J57" s="43" t="s">
-        <v>174</v>
+      <c r="J57" s="47" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B58" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C58" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="F58" s="36"/>
+      <c r="G58" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="I58" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C58" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="F58" s="47"/>
-      <c r="G58" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="I58" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="J58" s="44"/>
+      <c r="J58" s="48"/>
     </row>
     <row r="59" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C59" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="F59" s="47"/>
+        <v>35</v>
+      </c>
+      <c r="C59" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="F59" s="36"/>
       <c r="G59" s="11" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I59" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="J59" s="44"/>
+        <v>165</v>
+      </c>
+      <c r="J59" s="48"/>
     </row>
     <row r="60" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C60" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="F60" s="47"/>
+        <v>99</v>
+      </c>
+      <c r="C60" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="F60" s="36"/>
       <c r="G60" s="11" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="I60" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="J60" s="44"/>
+        <v>166</v>
+      </c>
+      <c r="J60" s="48"/>
     </row>
     <row r="61" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C61" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="F61" s="47"/>
+        <v>160</v>
+      </c>
+      <c r="C61" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="F61" s="36"/>
       <c r="G61" s="11" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I61" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="J61" s="45"/>
+        <v>167</v>
+      </c>
+      <c r="J61" s="49"/>
     </row>
     <row r="62" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C62" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="D62" s="47"/>
-      <c r="E62" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="F62" s="47"/>
+        <v>161</v>
+      </c>
+      <c r="C62" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="F62" s="36"/>
       <c r="G62" s="11" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="I62" s="15" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="J62" s="15" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
@@ -2540,191 +2520,191 @@
       <c r="J63" s="19"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="B64" s="52"/>
-      <c r="C64" s="52"/>
-      <c r="D64" s="52"/>
-      <c r="E64" s="52"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="52"/>
-      <c r="H64" s="52"/>
-      <c r="I64" s="52"/>
-      <c r="J64" s="52"/>
+      <c r="A64" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="38"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="38"/>
+      <c r="J64" s="38"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="35"/>
+      <c r="A65" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="39"/>
     </row>
     <row r="66" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B66" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C66" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="F66" s="36"/>
+      <c r="G66" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="I66" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C66" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="F66" s="47"/>
-      <c r="G66" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="I66" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="J66" s="43" t="s">
-        <v>174</v>
+      <c r="J66" s="47" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B67" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C67" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="F67" s="36"/>
+      <c r="G67" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="I67" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C67" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="D67" s="47"/>
-      <c r="E67" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="F67" s="47"/>
-      <c r="G67" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="H67" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="I67" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="J67" s="44"/>
+      <c r="J67" s="48"/>
     </row>
     <row r="68" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C68" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="D68" s="47"/>
-      <c r="E68" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="F68" s="47"/>
+        <v>35</v>
+      </c>
+      <c r="C68" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="F68" s="36"/>
       <c r="G68" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="I68" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="J68" s="44"/>
+        <v>165</v>
+      </c>
+      <c r="J68" s="48"/>
     </row>
     <row r="69" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C69" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="F69" s="47"/>
+        <v>99</v>
+      </c>
+      <c r="C69" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="F69" s="36"/>
       <c r="G69" s="11" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I69" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="J69" s="44"/>
+        <v>166</v>
+      </c>
+      <c r="J69" s="48"/>
     </row>
     <row r="70" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C70" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="D70" s="47"/>
-      <c r="E70" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="F70" s="47"/>
+        <v>160</v>
+      </c>
+      <c r="C70" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="F70" s="36"/>
       <c r="G70" s="11" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I70" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="J70" s="45"/>
+        <v>167</v>
+      </c>
+      <c r="J70" s="49"/>
     </row>
     <row r="71" spans="1:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C71" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="D71" s="47"/>
-      <c r="E71" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="F71" s="47"/>
+        <v>161</v>
+      </c>
+      <c r="C71" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="F71" s="36"/>
       <c r="G71" s="11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I71" s="15" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="J71" s="15" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
@@ -2733,92 +2713,92 @@
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74" s="46" t="s">
-        <v>177</v>
-      </c>
-      <c r="B74" s="46"/>
-      <c r="C74" s="46"/>
-      <c r="D74" s="46"/>
-      <c r="E74" s="46"/>
-      <c r="F74" s="46"/>
-      <c r="G74" s="46"/>
-      <c r="H74" s="46"/>
-      <c r="I74" s="46"/>
-      <c r="J74" s="46"/>
+      <c r="A74" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="B74" s="45"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="45"/>
+      <c r="F74" s="45"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="45"/>
+      <c r="I74" s="45"/>
+      <c r="J74" s="45"/>
     </row>
     <row r="75" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="B75" s="40" t="s">
+      <c r="A75" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C75" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="D75" s="39"/>
-      <c r="E75" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="F75" s="39"/>
-      <c r="G75" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="H75" s="39"/>
-      <c r="I75" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="J75" s="39"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="F75" s="33"/>
+      <c r="G75" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="H75" s="33"/>
+      <c r="I75" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="J75" s="33"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" s="40"/>
-      <c r="B76" s="40"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="39"/>
-      <c r="F76" s="39"/>
-      <c r="G76" s="39"/>
-      <c r="H76" s="39"/>
-      <c r="I76" s="39"/>
-      <c r="J76" s="39"/>
+      <c r="A76" s="34"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="33"/>
+      <c r="I76" s="33"/>
+      <c r="J76" s="33"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" s="40"/>
-      <c r="B77" s="40"/>
-      <c r="C77" s="39"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="39"/>
-      <c r="F77" s="39"/>
-      <c r="G77" s="39"/>
-      <c r="H77" s="39"/>
-      <c r="I77" s="39"/>
-      <c r="J77" s="39"/>
+      <c r="A77" s="34"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="33"/>
+      <c r="J77" s="33"/>
     </row>
     <row r="78" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A78" s="12">
         <v>1</v>
       </c>
-      <c r="B78" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="C78" s="39">
+      <c r="B78" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78" s="33">
         <v>0.5</v>
       </c>
-      <c r="D78" s="39"/>
-      <c r="E78" s="39">
+      <c r="D78" s="33"/>
+      <c r="E78" s="33">
         <v>500</v>
       </c>
-      <c r="F78" s="39"/>
+      <c r="F78" s="33"/>
       <c r="G78" s="42" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H78" s="42"/>
-      <c r="I78" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="J78" s="39"/>
+      <c r="I78" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="J78" s="33"/>
       <c r="L78" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="M78" s="1">
         <v>2.1</v>
@@ -2828,19 +2808,19 @@
       <c r="A79" s="12">
         <v>2</v>
       </c>
-      <c r="B79" s="41"/>
-      <c r="C79" s="39"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="39"/>
-      <c r="F79" s="39"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="33"/>
       <c r="G79" s="42" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H79" s="42"/>
-      <c r="I79" s="39"/>
-      <c r="J79" s="39"/>
+      <c r="I79" s="33"/>
+      <c r="J79" s="33"/>
       <c r="L79" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M79" s="1">
         <v>3.5</v>
@@ -2850,19 +2830,19 @@
       <c r="A80" s="12">
         <v>3</v>
       </c>
-      <c r="B80" s="41"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="39"/>
-      <c r="F80" s="39"/>
+      <c r="B80" s="35"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="33"/>
       <c r="G80" s="42" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H80" s="42"/>
-      <c r="I80" s="39"/>
-      <c r="J80" s="39"/>
+      <c r="I80" s="33"/>
+      <c r="J80" s="33"/>
       <c r="L80" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M80" s="1">
         <v>3.5</v>
@@ -2872,17 +2852,17 @@
       <c r="A81" s="12">
         <v>4</v>
       </c>
-      <c r="B81" s="41"/>
-      <c r="C81" s="39"/>
-      <c r="D81" s="39"/>
-      <c r="E81" s="39"/>
-      <c r="F81" s="39"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33"/>
       <c r="G81" s="42" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H81" s="42"/>
-      <c r="I81" s="39"/>
-      <c r="J81" s="39"/>
+      <c r="I81" s="33"/>
+      <c r="J81" s="33"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
@@ -2891,110 +2871,110 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="B85" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="C85" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="D85" s="41"/>
-      <c r="E85" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="F85" s="39"/>
-      <c r="G85" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="H85" s="39"/>
+      <c r="A85" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="C85" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D85" s="35"/>
+      <c r="E85" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="F85" s="33"/>
+      <c r="G85" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="H85" s="33"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" s="39"/>
-      <c r="B86" s="40"/>
-      <c r="C86" s="41"/>
-      <c r="D86" s="41"/>
-      <c r="E86" s="39"/>
-      <c r="F86" s="39"/>
-      <c r="G86" s="39"/>
-      <c r="H86" s="39"/>
+      <c r="A86" s="33"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="35"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="33"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" s="39"/>
-      <c r="B87" s="40"/>
-      <c r="C87" s="41"/>
-      <c r="D87" s="41"/>
-      <c r="E87" s="39"/>
-      <c r="F87" s="39"/>
-      <c r="G87" s="39"/>
-      <c r="H87" s="39"/>
+      <c r="A87" s="33"/>
+      <c r="B87" s="34"/>
+      <c r="C87" s="35"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="33"/>
     </row>
     <row r="88" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A88" s="14">
         <v>1</v>
       </c>
-      <c r="B88" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="C88" s="41" t="s">
+      <c r="B88" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="D88" s="41"/>
+      <c r="C88" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="D88" s="35"/>
       <c r="E88" s="42" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F88" s="42"/>
-      <c r="G88" s="39">
+      <c r="G88" s="33">
         <v>500</v>
       </c>
-      <c r="H88" s="39"/>
+      <c r="H88" s="33"/>
     </row>
     <row r="89" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A89" s="14">
         <v>2</v>
       </c>
-      <c r="B89" s="39"/>
-      <c r="C89" s="41"/>
-      <c r="D89" s="41"/>
+      <c r="B89" s="33"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="35"/>
       <c r="E89" s="42" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F89" s="42"/>
-      <c r="G89" s="39"/>
-      <c r="H89" s="39"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="33"/>
     </row>
     <row r="90" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A90" s="14">
         <v>3</v>
       </c>
-      <c r="B90" s="39"/>
-      <c r="C90" s="41"/>
-      <c r="D90" s="41"/>
+      <c r="B90" s="33"/>
+      <c r="C90" s="35"/>
+      <c r="D90" s="35"/>
       <c r="E90" s="42" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F90" s="42"/>
-      <c r="G90" s="39"/>
-      <c r="H90" s="39"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="33"/>
     </row>
     <row r="91" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A91" s="14">
         <v>4</v>
       </c>
-      <c r="B91" s="39"/>
-      <c r="C91" s="41"/>
-      <c r="D91" s="41"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="35"/>
+      <c r="D91" s="35"/>
       <c r="E91" s="42" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F91" s="42"/>
-      <c r="G91" s="39"/>
-      <c r="H91" s="39"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="33"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
@@ -3002,20 +2982,20 @@
       </c>
     </row>
     <row r="96" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A96" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="B96" s="54"/>
+      <c r="A96" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B96" s="40"/>
       <c r="C96" s="7"/>
       <c r="D96" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E96" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="F96" s="57"/>
+        <v>86</v>
+      </c>
+      <c r="E96" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="F96" s="44"/>
       <c r="G96" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H96" s="10"/>
       <c r="I96" s="1"/>
@@ -3032,14 +3012,14 @@
       <c r="I97" s="1"/>
     </row>
     <row r="98" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A98" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="B98" s="54"/>
-      <c r="C98" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="D98" s="55"/>
+      <c r="A98" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B98" s="40"/>
+      <c r="C98" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D98" s="41"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
@@ -3048,32 +3028,85 @@
     </row>
   </sheetData>
   <mergeCells count="129">
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="C85:D87"/>
-    <mergeCell ref="E85:F87"/>
-    <mergeCell ref="G85:H87"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="C88:D91"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="G88:H91"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="J41:J45"/>
+    <mergeCell ref="J49:J53"/>
+    <mergeCell ref="J57:J61"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I78:J81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="C78:D81"/>
+    <mergeCell ref="E78:F81"/>
+    <mergeCell ref="A74:J74"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="I75:J77"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:D38"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="A65:J65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="J66:J70"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G34:H37"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="E34:F38"/>
+    <mergeCell ref="I34:J38"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
     <mergeCell ref="A98:B98"/>
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="C42:D42"/>
@@ -3098,85 +3131,32 @@
     <mergeCell ref="C69:D69"/>
     <mergeCell ref="E69:F69"/>
     <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:D38"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="A65:J65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="J66:J70"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G34:H37"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="E34:F38"/>
-    <mergeCell ref="I34:J38"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="C88:D91"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="G88:H91"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="J41:J45"/>
-    <mergeCell ref="J49:J53"/>
-    <mergeCell ref="J57:J61"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="I78:J81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="C78:D81"/>
-    <mergeCell ref="E78:F81"/>
-    <mergeCell ref="A74:J74"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="I75:J77"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A18:D19"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="C85:D87"/>
+    <mergeCell ref="E85:F87"/>
+    <mergeCell ref="G85:H87"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.39370078740157483" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
